--- a/Output Data/Crpo/Common_folder/chart_analysis.xlsx
+++ b/Output Data/Crpo/Common_folder/chart_analysis.xlsx
@@ -170,16 +170,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.8281920666666666</c:v>
+                  <c:v>0.8011581499999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.171259844444444</c:v>
+                  <c:v>2.148864016666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.7061285333333333</c:v>
+                  <c:v>0.7252157333333332</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.461214822222222</c:v>
+                  <c:v>3.497580849999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -233,16 +233,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.6016856666666667</c:v>
+                  <c:v>0.6060464333333334</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.103251266666666</c:v>
+                  <c:v>2.084166283333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8992932222222222</c:v>
+                  <c:v>0.8976629333333334</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.062925822222222</c:v>
+                  <c:v>2.388222883333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -296,16 +296,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.0284944</c:v>
+                  <c:v>0.9499793000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.741898311111111</c:v>
+                  <c:v>1.720672266666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.038443022222222</c:v>
+                  <c:v>1.035126466666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.132038244444445</c:v>
+                  <c:v>2.167945333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -359,16 +359,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.195948155555556</c:v>
+                  <c:v>1.241419883333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0859054</c:v>
+                  <c:v>2.00935405</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.405064666666667</c:v>
+                  <c:v>1.472448483333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.404822333333334</c:v>
+                  <c:v>2.495317866666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -422,16 +422,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.7237387333333333</c:v>
+                  <c:v>0.7305252166666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.700957622222222</c:v>
+                  <c:v>1.580263816666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.047912355555555</c:v>
+                  <c:v>1.0229376</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.586873844444444</c:v>
+                  <c:v>1.627616733333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -865,19 +865,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.8281920666666666</v>
+        <v>0.8011581499999999</v>
       </c>
       <c r="C2">
-        <v>0.6016856666666667</v>
+        <v>0.6060464333333334</v>
       </c>
       <c r="D2">
-        <v>1.0284944</v>
+        <v>0.9499793000000002</v>
       </c>
       <c r="E2">
-        <v>1.195948155555556</v>
+        <v>1.241419883333333</v>
       </c>
       <c r="F2">
-        <v>0.7237387333333333</v>
+        <v>0.7305252166666666</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -885,19 +885,19 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>2.171259844444444</v>
+        <v>2.148864016666667</v>
       </c>
       <c r="C3">
-        <v>2.103251266666666</v>
+        <v>2.084166283333333</v>
       </c>
       <c r="D3">
-        <v>1.741898311111111</v>
+        <v>1.720672266666667</v>
       </c>
       <c r="E3">
-        <v>2.0859054</v>
+        <v>2.00935405</v>
       </c>
       <c r="F3">
-        <v>1.700957622222222</v>
+        <v>1.580263816666666</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -905,19 +905,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.7061285333333333</v>
+        <v>0.7252157333333332</v>
       </c>
       <c r="C4">
-        <v>0.8992932222222222</v>
+        <v>0.8976629333333334</v>
       </c>
       <c r="D4">
-        <v>1.038443022222222</v>
+        <v>1.035126466666667</v>
       </c>
       <c r="E4">
-        <v>1.405064666666667</v>
+        <v>1.472448483333333</v>
       </c>
       <c r="F4">
-        <v>1.047912355555555</v>
+        <v>1.0229376</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -925,19 +925,19 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>3.461214822222222</v>
+        <v>3.497580849999999</v>
       </c>
       <c r="C5">
-        <v>2.062925822222222</v>
+        <v>2.388222883333333</v>
       </c>
       <c r="D5">
-        <v>2.132038244444445</v>
+        <v>2.167945333333333</v>
       </c>
       <c r="E5">
-        <v>2.404822333333334</v>
+        <v>2.495317866666667</v>
       </c>
       <c r="F5">
-        <v>1.586873844444444</v>
+        <v>1.627616733333333</v>
       </c>
     </row>
   </sheetData>
